--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.80107362786199</v>
+        <v>0.5158756666666667</v>
       </c>
       <c r="H2">
-        <v>1.80107362786199</v>
+        <v>1.547627</v>
       </c>
       <c r="I2">
-        <v>0.3209923802728616</v>
+        <v>0.08115675834014567</v>
       </c>
       <c r="J2">
-        <v>0.3209923802728616</v>
+        <v>0.08115675834014567</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N2">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O2">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P2">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q2">
-        <v>13.94865055284325</v>
+        <v>5.360419858984556</v>
       </c>
       <c r="R2">
-        <v>13.94865055284325</v>
+        <v>48.243778730861</v>
       </c>
       <c r="S2">
-        <v>0.02107098667493188</v>
+        <v>0.006777389924335783</v>
       </c>
       <c r="T2">
-        <v>0.02107098667493188</v>
+        <v>0.006777389924335783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.80107362786199</v>
+        <v>0.5158756666666667</v>
       </c>
       <c r="H3">
-        <v>1.80107362786199</v>
+        <v>1.547627</v>
       </c>
       <c r="I3">
-        <v>0.3209923802728616</v>
+        <v>0.08115675834014567</v>
       </c>
       <c r="J3">
-        <v>0.3209923802728616</v>
+        <v>0.08115675834014567</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N3">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O3">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P3">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q3">
-        <v>64.24423896550439</v>
+        <v>18.42481893399622</v>
       </c>
       <c r="R3">
-        <v>64.24423896550439</v>
+        <v>165.823370405966</v>
       </c>
       <c r="S3">
-        <v>0.09704806196520212</v>
+        <v>0.02329522415892105</v>
       </c>
       <c r="T3">
-        <v>0.09704806196520212</v>
+        <v>0.02329522415892105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.80107362786199</v>
+        <v>0.5158756666666667</v>
       </c>
       <c r="H4">
-        <v>1.80107362786199</v>
+        <v>1.547627</v>
       </c>
       <c r="I4">
-        <v>0.3209923802728616</v>
+        <v>0.08115675834014567</v>
       </c>
       <c r="J4">
-        <v>0.3209923802728616</v>
+        <v>0.08115675834014567</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N4">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O4">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P4">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q4">
-        <v>87.03867389171131</v>
+        <v>26.75870091054733</v>
       </c>
       <c r="R4">
-        <v>87.03867389171131</v>
+        <v>240.828308194926</v>
       </c>
       <c r="S4">
-        <v>0.1314815889055415</v>
+        <v>0.03383207933525804</v>
       </c>
       <c r="T4">
-        <v>0.1314815889055415</v>
+        <v>0.03383207933525805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.80107362786199</v>
+        <v>0.5158756666666667</v>
       </c>
       <c r="H5">
-        <v>1.80107362786199</v>
+        <v>1.547627</v>
       </c>
       <c r="I5">
-        <v>0.3209923802728616</v>
+        <v>0.08115675834014567</v>
       </c>
       <c r="J5">
-        <v>0.3209923802728616</v>
+        <v>0.08115675834014567</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.2400004557606</v>
+        <v>26.450408</v>
       </c>
       <c r="N5">
-        <v>26.2400004557606</v>
+        <v>79.351224</v>
       </c>
       <c r="O5">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="P5">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="Q5">
-        <v>47.26017281595702</v>
+        <v>13.64512186060533</v>
       </c>
       <c r="R5">
-        <v>47.26017281595702</v>
+        <v>122.806096745448</v>
       </c>
       <c r="S5">
-        <v>0.07139174272718615</v>
+        <v>0.01725206492163079</v>
       </c>
       <c r="T5">
-        <v>0.07139174272718615</v>
+        <v>0.01725206492163079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.209734362961548</v>
+        <v>1.828868333333333</v>
       </c>
       <c r="H6">
-        <v>0.209734362961548</v>
+        <v>5.486604999999999</v>
       </c>
       <c r="I6">
-        <v>0.03737944487697442</v>
+        <v>0.2877147246027853</v>
       </c>
       <c r="J6">
-        <v>0.03737944487697442</v>
+        <v>0.2877147246027853</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N6">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O6">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P6">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q6">
-        <v>1.624315237654457</v>
+        <v>19.00361417861278</v>
       </c>
       <c r="R6">
-        <v>1.624315237654457</v>
+        <v>171.032527607515</v>
       </c>
       <c r="S6">
-        <v>0.002453708665138892</v>
+        <v>0.02402701778000146</v>
       </c>
       <c r="T6">
-        <v>0.002453708665138892</v>
+        <v>0.02402701778000146</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.209734362961548</v>
+        <v>1.828868333333333</v>
       </c>
       <c r="H7">
-        <v>0.209734362961548</v>
+        <v>5.486604999999999</v>
       </c>
       <c r="I7">
-        <v>0.03737944487697442</v>
+        <v>0.2877147246027853</v>
       </c>
       <c r="J7">
-        <v>0.03737944487697442</v>
+        <v>0.2877147246027853</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N7">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O7">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P7">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q7">
-        <v>7.481218049577707</v>
+        <v>65.31916520412111</v>
       </c>
       <c r="R7">
-        <v>7.481218049577707</v>
+        <v>587.8724868370899</v>
       </c>
       <c r="S7">
-        <v>0.01130121119872629</v>
+        <v>0.0825855928763565</v>
       </c>
       <c r="T7">
-        <v>0.01130121119872629</v>
+        <v>0.0825855928763565</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.209734362961548</v>
+        <v>1.828868333333333</v>
       </c>
       <c r="H8">
-        <v>0.209734362961548</v>
+        <v>5.486604999999999</v>
       </c>
       <c r="I8">
-        <v>0.03737944487697442</v>
+        <v>0.2877147246027853</v>
       </c>
       <c r="J8">
-        <v>0.03737944487697442</v>
+        <v>0.2877147246027853</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N8">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O8">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P8">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q8">
-        <v>10.1356216310635</v>
+        <v>94.86421612527664</v>
       </c>
       <c r="R8">
-        <v>10.1356216310635</v>
+        <v>853.7779451274898</v>
       </c>
       <c r="S8">
-        <v>0.01531098277365313</v>
+        <v>0.1199405642581988</v>
       </c>
       <c r="T8">
-        <v>0.01531098277365313</v>
+        <v>0.1199405642581988</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.209734362961548</v>
+        <v>1.828868333333333</v>
       </c>
       <c r="H9">
-        <v>0.209734362961548</v>
+        <v>5.486604999999999</v>
       </c>
       <c r="I9">
-        <v>0.03737944487697442</v>
+        <v>0.2877147246027853</v>
       </c>
       <c r="J9">
-        <v>0.03737944487697442</v>
+        <v>0.2877147246027853</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.2400004557606</v>
+        <v>26.450408</v>
       </c>
       <c r="N9">
-        <v>26.2400004557606</v>
+        <v>79.351224</v>
       </c>
       <c r="O9">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="P9">
-        <v>0.2224094623881699</v>
+        <v>0.2125770579613792</v>
       </c>
       <c r="Q9">
-        <v>5.503429779699679</v>
+        <v>48.37431359494666</v>
       </c>
       <c r="R9">
-        <v>5.503429779699679</v>
+        <v>435.3688223545199</v>
       </c>
       <c r="S9">
-        <v>0.008313542239456113</v>
+        <v>0.06116154968822855</v>
       </c>
       <c r="T9">
-        <v>0.008313542239456113</v>
+        <v>0.06116154968822855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.60014646962495</v>
+        <v>0.2256573333333333</v>
       </c>
       <c r="H10">
-        <v>3.60014646962495</v>
+        <v>0.6769719999999999</v>
       </c>
       <c r="I10">
-        <v>0.641628174850164</v>
+        <v>0.03550006106577688</v>
       </c>
       <c r="J10">
-        <v>0.641628174850164</v>
+        <v>0.03550006106577688</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.74463094515539</v>
+        <v>10.39091433333333</v>
       </c>
       <c r="N10">
-        <v>7.74463094515539</v>
+        <v>31.172743</v>
       </c>
       <c r="O10">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="P10">
-        <v>0.06564326124196579</v>
+        <v>0.0835098648954196</v>
       </c>
       <c r="Q10">
-        <v>27.88180575574932</v>
+        <v>2.34478601935511</v>
       </c>
       <c r="R10">
-        <v>27.88180575574932</v>
+        <v>21.103074174196</v>
       </c>
       <c r="S10">
-        <v>0.04211856590189502</v>
+        <v>0.002964605303382173</v>
       </c>
       <c r="T10">
-        <v>0.04211856590189502</v>
+        <v>0.002964605303382173</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.60014646962495</v>
+        <v>0.2256573333333333</v>
       </c>
       <c r="H11">
-        <v>3.60014646962495</v>
+        <v>0.6769719999999999</v>
       </c>
       <c r="I11">
-        <v>0.641628174850164</v>
+        <v>0.03550006106577688</v>
       </c>
       <c r="J11">
-        <v>0.641628174850164</v>
+        <v>0.03550006106577688</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>35.6699681632489</v>
+        <v>35.71561933333334</v>
       </c>
       <c r="N11">
-        <v>35.6699681632489</v>
+        <v>107.146858</v>
       </c>
       <c r="O11">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="P11">
-        <v>0.3023375878352806</v>
+        <v>0.287039855156433</v>
       </c>
       <c r="Q11">
-        <v>128.4171099545549</v>
+        <v>8.059491417108443</v>
       </c>
       <c r="R11">
-        <v>128.4171099545549</v>
+        <v>72.53542275397599</v>
       </c>
       <c r="S11">
-        <v>0.1939883146713523</v>
+        <v>0.01018993238636512</v>
       </c>
       <c r="T11">
-        <v>0.1939883146713523</v>
+        <v>0.01018993238636512</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.60014646962495</v>
+        <v>0.2256573333333333</v>
       </c>
       <c r="H12">
-        <v>3.60014646962495</v>
+        <v>0.6769719999999999</v>
       </c>
       <c r="I12">
-        <v>0.641628174850164</v>
+        <v>0.03550006106577688</v>
       </c>
       <c r="J12">
-        <v>0.641628174850164</v>
+        <v>0.03550006106577688</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.3259943098677</v>
+        <v>51.87044599999999</v>
       </c>
       <c r="N12">
-        <v>48.3259943098677</v>
+        <v>155.611338</v>
       </c>
       <c r="O12">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="P12">
-        <v>0.4096096885345837</v>
+        <v>0.4168732219867682</v>
       </c>
       <c r="Q12">
-        <v>173.9806578057856</v>
+        <v>11.70494652317066</v>
       </c>
       <c r="R12">
-        <v>173.9806578057856</v>
+        <v>105.344518708536</v>
       </c>
       <c r="S12">
-        <v>0.2628171168553891</v>
+        <v>0.01479902483721743</v>
       </c>
       <c r="T12">
-        <v>0.2628171168553891</v>
+        <v>0.01479902483721744</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2256573333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.6769719999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.03550006106577688</v>
+      </c>
+      <c r="J13">
+        <v>0.03550006106577688</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>26.450408</v>
+      </c>
+      <c r="N13">
+        <v>79.351224</v>
+      </c>
+      <c r="O13">
+        <v>0.2125770579613792</v>
+      </c>
+      <c r="P13">
+        <v>0.2125770579613792</v>
+      </c>
+      <c r="Q13">
+        <v>5.968728534858665</v>
+      </c>
+      <c r="R13">
+        <v>53.71855681372799</v>
+      </c>
+      <c r="S13">
+        <v>0.007546498538812154</v>
+      </c>
+      <c r="T13">
+        <v>0.007546498538812155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.786132333333333</v>
+      </c>
+      <c r="H14">
+        <v>11.358397</v>
+      </c>
+      <c r="I14">
+        <v>0.5956284559912921</v>
+      </c>
+      <c r="J14">
+        <v>0.5956284559912921</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10.39091433333333</v>
+      </c>
+      <c r="N14">
+        <v>31.172743</v>
+      </c>
+      <c r="O14">
+        <v>0.0835098648954196</v>
+      </c>
+      <c r="P14">
+        <v>0.0835098648954196</v>
+      </c>
+      <c r="Q14">
+        <v>39.34137673033011</v>
+      </c>
+      <c r="R14">
+        <v>354.072390572971</v>
+      </c>
+      <c r="S14">
+        <v>0.04974085188770019</v>
+      </c>
+      <c r="T14">
+        <v>0.04974085188770019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.786132333333333</v>
+      </c>
+      <c r="H15">
+        <v>11.358397</v>
+      </c>
+      <c r="I15">
+        <v>0.5956284559912921</v>
+      </c>
+      <c r="J15">
+        <v>0.5956284559912921</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>35.71561933333334</v>
+      </c>
+      <c r="N15">
+        <v>107.146858</v>
+      </c>
+      <c r="O15">
+        <v>0.287039855156433</v>
+      </c>
+      <c r="P15">
+        <v>0.287039855156433</v>
+      </c>
+      <c r="Q15">
+        <v>135.2240611629585</v>
+      </c>
+      <c r="R15">
+        <v>1217.016550466626</v>
+      </c>
+      <c r="S15">
+        <v>0.1709691057347903</v>
+      </c>
+      <c r="T15">
+        <v>0.1709691057347903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.60014646962495</v>
-      </c>
-      <c r="H13">
-        <v>3.60014646962495</v>
-      </c>
-      <c r="I13">
-        <v>0.641628174850164</v>
-      </c>
-      <c r="J13">
-        <v>0.641628174850164</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>26.2400004557606</v>
-      </c>
-      <c r="N13">
-        <v>26.2400004557606</v>
-      </c>
-      <c r="O13">
-        <v>0.2224094623881699</v>
-      </c>
-      <c r="P13">
-        <v>0.2224094623881699</v>
-      </c>
-      <c r="Q13">
-        <v>94.46784500376361</v>
-      </c>
-      <c r="R13">
-        <v>94.46784500376361</v>
-      </c>
-      <c r="S13">
-        <v>0.1427041774215277</v>
-      </c>
-      <c r="T13">
-        <v>0.1427041774215277</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.786132333333333</v>
+      </c>
+      <c r="H16">
+        <v>11.358397</v>
+      </c>
+      <c r="I16">
+        <v>0.5956284559912921</v>
+      </c>
+      <c r="J16">
+        <v>0.5956284559912921</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>51.87044599999999</v>
+      </c>
+      <c r="N16">
+        <v>155.611338</v>
+      </c>
+      <c r="O16">
+        <v>0.4168732219867682</v>
+      </c>
+      <c r="P16">
+        <v>0.4168732219867682</v>
+      </c>
+      <c r="Q16">
+        <v>196.3883727450206</v>
+      </c>
+      <c r="R16">
+        <v>1767.495354705186</v>
+      </c>
+      <c r="S16">
+        <v>0.2483015535560939</v>
+      </c>
+      <c r="T16">
+        <v>0.2483015535560939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.786132333333333</v>
+      </c>
+      <c r="H17">
+        <v>11.358397</v>
+      </c>
+      <c r="I17">
+        <v>0.5956284559912921</v>
+      </c>
+      <c r="J17">
+        <v>0.5956284559912921</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>26.450408</v>
+      </c>
+      <c r="N17">
+        <v>79.351224</v>
+      </c>
+      <c r="O17">
+        <v>0.2125770579613792</v>
+      </c>
+      <c r="P17">
+        <v>0.2125770579613792</v>
+      </c>
+      <c r="Q17">
+        <v>100.1447449586587</v>
+      </c>
+      <c r="R17">
+        <v>901.3027046279281</v>
+      </c>
+      <c r="S17">
+        <v>0.1266169448127077</v>
+      </c>
+      <c r="T17">
+        <v>0.1266169448127077</v>
       </c>
     </row>
   </sheetData>
